--- a/outputs/tables/confusion matrices.xlsx
+++ b/outputs/tables/confusion matrices.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -96,18 +95,86 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -569,7 +636,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>AF</t>
+          <t>RBBB</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -578,28 +645,28 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>814</v>
+        <v>789</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="n">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>792</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>790</v>
+      </c>
+      <c r="J6" t="n">
         <v>3</v>
-      </c>
-      <c r="G6" t="n">
-        <v>812</v>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>805</v>
-      </c>
-      <c r="J6" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -610,28 +677,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -705,7 +772,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>RBBB</t>
+          <t>SB</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -714,28 +781,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>789</v>
+        <v>808</v>
       </c>
       <c r="D10" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>808</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
+      <c r="G10" t="n">
+        <v>808</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+      <c r="I10" t="n">
+        <v>807</v>
+      </c>
+      <c r="J10" t="n">
         <v>4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>788</v>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-      <c r="G10" t="n">
-        <v>792</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>790</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -746,34 +813,34 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>SB</t>
+          <t>AF</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -782,28 +849,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="J12" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -814,25 +881,25 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>3</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+      <c r="I13" t="n">
         <v>1</v>
-      </c>
-      <c r="D13" t="n">
-        <v>15</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" t="n">
-        <v>15</v>
-      </c>
-      <c r="G13" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>14</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4</v>
       </c>
       <c r="J13" t="n">
         <v>12</v>
@@ -919,6 +986,6 @@
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>